--- a/po_analysis_by_asin/B0CGGZZTV3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGGZZTV3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,119 +452,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45432</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -572,15 +572,15 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45446</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -588,23 +588,23 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45481</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45488</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45495</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -612,15 +612,15 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45509</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45516</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>8</v>
@@ -628,41 +628,89 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45537</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45558</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45565</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B34" t="n">
         <v>34</v>
       </c>
     </row>
@@ -677,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,47 +747,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
@@ -747,33 +795,57 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>34</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CGGZZTV3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGGZZTV3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -741,7 +742,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -847,6 +848,621 @@
       </c>
       <c r="B14" t="n">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.14143821145515</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.10213338325745</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-15.10350180492543</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.74673082536317</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-13.10033481898137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.10611056512057</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-13.22579717545753</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.49952095567826</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.88053445404841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.68607298504871</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-10.79372930881389</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.9893761043067</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.26060462549372</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.75327781153001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-10.06999228405025</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.09886352023969</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-10.39354691968957</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.50401535404275</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-10.14963795330642</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.28229388882935</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-10.44614579470676</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.48324103476445</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.484438968987639</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.42872932805552</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-7.66726274253612</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.4948598629698</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.351117342376463</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.93193668398477</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-6.560417758942178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.89065069878362</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.496656279609047</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.77619180104325</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-5.726110146044483</v>
+      </c>
+      <c r="D18" t="n">
+        <v>27.57408422123605</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-5.563291064174527</v>
+      </c>
+      <c r="D19" t="n">
+        <v>26.51236937954425</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-5.068055660370558</v>
+      </c>
+      <c r="D20" t="n">
+        <v>26.87057234639788</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.672961011733624</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27.17454893236975</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.795292397850783</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.13622846586318</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.740907597617255</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28.91856434932692</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.587606692672527</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28.16512022864535</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.965651168576851</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29.45839954937888</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.602795269469304</v>
+      </c>
+      <c r="D26" t="n">
+        <v>29.69882797301499</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.106531581069087</v>
+      </c>
+      <c r="D27" t="n">
+        <v>30.95802871039791</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.413236364676026</v>
+      </c>
+      <c r="D28" t="n">
+        <v>31.15383685396379</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.5157324871458384</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29.87283266467075</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.317323771895849</v>
+      </c>
+      <c r="D30" t="n">
+        <v>31.39134547837433</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1950227797221908</v>
+      </c>
+      <c r="D31" t="n">
+        <v>31.65189916611168</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.1356387595893556</v>
+      </c>
+      <c r="D32" t="n">
+        <v>31.49962645735555</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>17</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7109576285015569</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31.8428178910124</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1057900025973702</v>
+      </c>
+      <c r="D34" t="n">
+        <v>33.69660812204293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9910555096696334</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33.65713885082981</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.487371238978906</v>
+      </c>
+      <c r="D36" t="n">
+        <v>33.27371928688771</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.418070789668806</v>
+      </c>
+      <c r="D37" t="n">
+        <v>33.67079976290731</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.228182285563139</v>
+      </c>
+      <c r="D38" t="n">
+        <v>34.55234316011227</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.026510102872942</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33.45649635260392</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.155028892598436</v>
+      </c>
+      <c r="D40" t="n">
+        <v>34.81436667391626</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.964930802039572</v>
+      </c>
+      <c r="D41" t="n">
+        <v>34.91284242603662</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.69689517641462</v>
+      </c>
+      <c r="D42" t="n">
+        <v>34.71062241372786</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CGGZZTV3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGGZZTV3_po_data.xlsx
@@ -861,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,16 +880,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -898,12 +888,6 @@
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>-13.14143821145515</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.10213338325745</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -912,12 +896,6 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>-15.10350180492543</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.74673082536317</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -926,12 +904,6 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>-13.10033481898137</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.10611056512057</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -940,12 +912,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-13.22579717545753</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.49952095567826</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -954,12 +920,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-11.88053445404841</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.68607298504871</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -968,12 +928,6 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>-10.79372930881389</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.9893761043067</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -982,12 +936,6 @@
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>-11.26060462549372</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.75327781153001</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -996,12 +944,6 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>-10.06999228405025</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22.09886352023969</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1010,12 +952,6 @@
       <c r="B10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>-10.39354691968957</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22.50401535404275</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1024,12 +960,6 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>-10.14963795330642</v>
-      </c>
-      <c r="D11" t="n">
-        <v>22.28229388882935</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1038,12 +968,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>-10.44614579470676</v>
-      </c>
-      <c r="D12" t="n">
-        <v>21.48324103476445</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1052,12 +976,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>-9.484438968987639</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22.42872932805552</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1066,12 +984,6 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>-7.66726274253612</v>
-      </c>
-      <c r="D14" t="n">
-        <v>24.4948598629698</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1080,12 +992,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>-7.351117342376463</v>
-      </c>
-      <c r="D15" t="n">
-        <v>23.93193668398477</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1094,12 +1000,6 @@
       <c r="B16" t="n">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
-        <v>-6.560417758942178</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26.89065069878362</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1108,12 +1008,6 @@
       <c r="B17" t="n">
         <v>10</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.496656279609047</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25.77619180104325</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1122,12 +1016,6 @@
       <c r="B18" t="n">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
-        <v>-5.726110146044483</v>
-      </c>
-      <c r="D18" t="n">
-        <v>27.57408422123605</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1136,12 +1024,6 @@
       <c r="B19" t="n">
         <v>11</v>
       </c>
-      <c r="C19" t="n">
-        <v>-5.563291064174527</v>
-      </c>
-      <c r="D19" t="n">
-        <v>26.51236937954425</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1150,12 +1032,6 @@
       <c r="B20" t="n">
         <v>11</v>
       </c>
-      <c r="C20" t="n">
-        <v>-5.068055660370558</v>
-      </c>
-      <c r="D20" t="n">
-        <v>26.87057234639788</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1164,12 +1040,6 @@
       <c r="B21" t="n">
         <v>11</v>
       </c>
-      <c r="C21" t="n">
-        <v>-4.672961011733624</v>
-      </c>
-      <c r="D21" t="n">
-        <v>27.17454893236975</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1178,12 +1048,6 @@
       <c r="B22" t="n">
         <v>12</v>
       </c>
-      <c r="C22" t="n">
-        <v>-4.795292397850783</v>
-      </c>
-      <c r="D22" t="n">
-        <v>28.13622846586318</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1192,12 +1056,6 @@
       <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
-        <v>-4.740907597617255</v>
-      </c>
-      <c r="D23" t="n">
-        <v>28.91856434932692</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1206,12 +1064,6 @@
       <c r="B24" t="n">
         <v>12</v>
       </c>
-      <c r="C24" t="n">
-        <v>-4.587606692672527</v>
-      </c>
-      <c r="D24" t="n">
-        <v>28.16512022864535</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1220,12 +1072,6 @@
       <c r="B25" t="n">
         <v>13</v>
       </c>
-      <c r="C25" t="n">
-        <v>-1.965651168576851</v>
-      </c>
-      <c r="D25" t="n">
-        <v>29.45839954937888</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1234,12 +1080,6 @@
       <c r="B26" t="n">
         <v>14</v>
       </c>
-      <c r="C26" t="n">
-        <v>-1.602795269469304</v>
-      </c>
-      <c r="D26" t="n">
-        <v>29.69882797301499</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1248,12 +1088,6 @@
       <c r="B27" t="n">
         <v>14</v>
       </c>
-      <c r="C27" t="n">
-        <v>-2.106531581069087</v>
-      </c>
-      <c r="D27" t="n">
-        <v>30.95802871039791</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1262,12 +1096,6 @@
       <c r="B28" t="n">
         <v>15</v>
       </c>
-      <c r="C28" t="n">
-        <v>-2.413236364676026</v>
-      </c>
-      <c r="D28" t="n">
-        <v>31.15383685396379</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1276,12 +1104,6 @@
       <c r="B29" t="n">
         <v>15</v>
       </c>
-      <c r="C29" t="n">
-        <v>-0.5157324871458384</v>
-      </c>
-      <c r="D29" t="n">
-        <v>29.87283266467075</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1290,12 +1112,6 @@
       <c r="B30" t="n">
         <v>15</v>
       </c>
-      <c r="C30" t="n">
-        <v>-1.317323771895849</v>
-      </c>
-      <c r="D30" t="n">
-        <v>31.39134547837433</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1304,12 +1120,6 @@
       <c r="B31" t="n">
         <v>15</v>
       </c>
-      <c r="C31" t="n">
-        <v>-0.1950227797221908</v>
-      </c>
-      <c r="D31" t="n">
-        <v>31.65189916611168</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1318,12 +1128,6 @@
       <c r="B32" t="n">
         <v>16</v>
       </c>
-      <c r="C32" t="n">
-        <v>-0.1356387595893556</v>
-      </c>
-      <c r="D32" t="n">
-        <v>31.49962645735555</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1332,12 +1136,6 @@
       <c r="B33" t="n">
         <v>17</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.7109576285015569</v>
-      </c>
-      <c r="D33" t="n">
-        <v>31.8428178910124</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1346,12 +1144,6 @@
       <c r="B34" t="n">
         <v>17</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.1057900025973702</v>
-      </c>
-      <c r="D34" t="n">
-        <v>33.69660812204293</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1360,12 +1152,6 @@
       <c r="B35" t="n">
         <v>17</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.9910555096696334</v>
-      </c>
-      <c r="D35" t="n">
-        <v>33.65713885082981</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1374,12 +1160,6 @@
       <c r="B36" t="n">
         <v>18</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.487371238978906</v>
-      </c>
-      <c r="D36" t="n">
-        <v>33.27371928688771</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1388,12 +1168,6 @@
       <c r="B37" t="n">
         <v>18</v>
       </c>
-      <c r="C37" t="n">
-        <v>1.418070789668806</v>
-      </c>
-      <c r="D37" t="n">
-        <v>33.67079976290731</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1402,12 +1176,6 @@
       <c r="B38" t="n">
         <v>18</v>
       </c>
-      <c r="C38" t="n">
-        <v>4.228182285563139</v>
-      </c>
-      <c r="D38" t="n">
-        <v>34.55234316011227</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1416,12 +1184,6 @@
       <c r="B39" t="n">
         <v>18</v>
       </c>
-      <c r="C39" t="n">
-        <v>2.026510102872942</v>
-      </c>
-      <c r="D39" t="n">
-        <v>33.45649635260392</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1430,12 +1192,6 @@
       <c r="B40" t="n">
         <v>19</v>
       </c>
-      <c r="C40" t="n">
-        <v>2.155028892598436</v>
-      </c>
-      <c r="D40" t="n">
-        <v>34.81436667391626</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1444,12 +1200,6 @@
       <c r="B41" t="n">
         <v>19</v>
       </c>
-      <c r="C41" t="n">
-        <v>3.964930802039572</v>
-      </c>
-      <c r="D41" t="n">
-        <v>34.91284242603662</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1457,12 +1207,6 @@
       </c>
       <c r="B42" t="n">
         <v>19</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.69689517641462</v>
-      </c>
-      <c r="D42" t="n">
-        <v>34.71062241372786</v>
       </c>
     </row>
   </sheetData>
